--- a/data_output/MSP.xlsx
+++ b/data_output/MSP.xlsx
@@ -399,16 +399,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>0.002784100575673525</v>
+        <v>0.002978444109810175</v>
       </c>
       <c r="D2">
-        <v>0.001272348529138505</v>
+        <v>0.00182914883631696</v>
       </c>
       <c r="E2">
-        <v>2.40029881533231e-05</v>
+        <v>2.855105501734859e-05</v>
       </c>
       <c r="F2">
-        <v>0.001574631340704236</v>
+        <v>0.001955594952039983</v>
       </c>
     </row>
     <row r="3">
@@ -421,16 +421,16 @@
         <v>150</v>
       </c>
       <c r="C3">
-        <v>0.0009027005499574023</v>
+        <v>0.0004064854781701174</v>
       </c>
       <c r="D3">
-        <v>0.001060239525561336</v>
+        <v>0.001085490999319872</v>
       </c>
       <c r="E3">
-        <v>8.735974319400928e-05</v>
+        <v>4.073873559873901e-05</v>
       </c>
       <c r="F3">
-        <v>0.0008733266912901964</v>
+        <v>0.0004350346360313801</v>
       </c>
     </row>
     <row r="4">
@@ -443,148 +443,148 @@
         <v>250</v>
       </c>
       <c r="C4">
-        <v>0.003263847897904007</v>
+        <v>0.004622298194472249</v>
       </c>
       <c r="D4">
-        <v>0.0005099197163626756</v>
+        <v>0.0004030800961405823</v>
       </c>
       <c r="E4">
-        <v>5.118090728295184e-05</v>
+        <v>5.280485872811138e-05</v>
       </c>
       <c r="F4">
-        <v>0.001747392308919486</v>
+        <v>0.0004909038158045692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.004354799299541537</v>
+        <v>2.857297827538873e-05</v>
       </c>
       <c r="D5">
-        <v>0.001390916750982497</v>
+        <v>0.0001242545427417546</v>
       </c>
       <c r="E5">
-        <v>8.083431051208293e-05</v>
+        <v>4.471051358278195e-06</v>
       </c>
       <c r="F5">
-        <v>0.003395139684359161</v>
+        <v>4.516419345040797e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B6">
         <v>150</v>
       </c>
       <c r="C6">
-        <v>0.005121265878310882</v>
+        <v>3.127022891665292e-07</v>
       </c>
       <c r="D6">
-        <v>0.001605134299571503</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.622349046366353e-05</v>
+        <v>5.2699126517684e-07</v>
       </c>
       <c r="F6">
-        <v>0.003117673825946946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B7">
         <v>270</v>
       </c>
       <c r="C7">
-        <v>0.004800395514133362</v>
+        <v>3.206964961804261e-06</v>
       </c>
       <c r="D7">
-        <v>0.001596804503570352</v>
+        <v>2.397513848060834e-07</v>
       </c>
       <c r="E7">
-        <v>1.559872836630103e-05</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.002560371366160063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.0002218336522149641</v>
+        <v>0.005209872724620913</v>
       </c>
       <c r="D8">
-        <v>0.0001806586276998348</v>
+        <v>0.001571667784911813</v>
       </c>
       <c r="E8">
-        <v>2.770788898337902e-05</v>
+        <v>7.91785825418965e-05</v>
       </c>
       <c r="F8">
-        <v>0.0001921840362728697</v>
+        <v>0.004808354863048059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B9">
         <v>150</v>
       </c>
       <c r="C9">
-        <v>1.021221786320489e-05</v>
+        <v>0.005827114304218977</v>
       </c>
       <c r="D9">
-        <v>5.309528591574272e-06</v>
+        <v>0.001734705471846837</v>
       </c>
       <c r="E9">
-        <v>3.486750504008081e-06</v>
+        <v>2.715658361669913e-05</v>
       </c>
       <c r="F9">
-        <v>7.96047205292065e-06</v>
+        <v>0.001859773353383564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B10">
         <v>270</v>
       </c>
       <c r="C10">
-        <v>3.317613989677443e-06</v>
+        <v>0.005502866884386694</v>
       </c>
       <c r="D10">
-        <v>5.758902001546928e-07</v>
+        <v>0.001701825646454912</v>
       </c>
       <c r="E10">
-        <v>2.529553099181923e-07</v>
+        <v>1.612405980483786e-05</v>
       </c>
       <c r="F10">
-        <v>1.000124831328827e-06</v>
+        <v>0.001739895593077417</v>
       </c>
     </row>
   </sheetData>
